--- a/excel/bin/Debug/net7.0/input.xlsx
+++ b/excel/bin/Debug/net7.0/input.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>yavuzvarnali@yavuzvarnali.com</t>
   </si>
@@ -381,6 +381,525 @@
   </si>
   <si>
     <t>chart@sea-chart.net</t>
+  </si>
+  <si>
+    <t>chartering@niavigrains.gr</t>
+  </si>
+  <si>
+    <t>chart@ernashipping.com</t>
+  </si>
+  <si>
+    <t>chart@kplines.com</t>
+  </si>
+  <si>
+    <t>dry@shiplinks.net</t>
+  </si>
+  <si>
+    <t>m.gouda@varamar.com</t>
+  </si>
+  <si>
+    <t>chartering@nikomarshipping.uk</t>
+  </si>
+  <si>
+    <t>chartering@regencyship.com</t>
+  </si>
+  <si>
+    <t>fix@alkchart.com</t>
+  </si>
+  <si>
+    <t>chartering@gujarathiempire.in</t>
+  </si>
+  <si>
+    <t>chart@lemafcc.com</t>
+  </si>
+  <si>
+    <t>kuruoglu@kuruoglushipping.com</t>
+  </si>
+  <si>
+    <t>info@e.bcsshipping.com</t>
+  </si>
+  <si>
+    <t>chartering@uniquebulk.com</t>
+  </si>
+  <si>
+    <t>shipping@myadria.net</t>
+  </si>
+  <si>
+    <t>ukragroconsult@ukragroconsult.com</t>
+  </si>
+  <si>
+    <t>Fix@leviathanchartering.com</t>
+  </si>
+  <si>
+    <t>chart@nazekship.com</t>
+  </si>
+  <si>
+    <t>chartering@lazershipping.com</t>
+  </si>
+  <si>
+    <t>positions@news.dship-carriers.com</t>
+  </si>
+  <si>
+    <t>chartering@beyazshipping.com</t>
+  </si>
+  <si>
+    <t>chartering@bharatiship.com</t>
+  </si>
+  <si>
+    <t>chartering@angorashipping.com</t>
+  </si>
+  <si>
+    <t>info@dadaylilarshipping.com</t>
+  </si>
+  <si>
+    <t>chartering@yildirimholding.com.tr</t>
+  </si>
+  <si>
+    <t>chartering@yilmar.com</t>
+  </si>
+  <si>
+    <t>chartering@bigor-ltd.com</t>
+  </si>
+  <si>
+    <t>noreply@gundemshipping.com</t>
+  </si>
+  <si>
+    <t>chartering@tfgshipping.net</t>
+  </si>
+  <si>
+    <t>fix@thanglongmarine.com</t>
+  </si>
+  <si>
+    <t>chartering@ewship.com</t>
+  </si>
+  <si>
+    <t>chartering@bitashipping.com</t>
+  </si>
+  <si>
+    <t>gerdogan@sofuoglushipping.com</t>
+  </si>
+  <si>
+    <t>chartering@sofuoglushipping.com</t>
+  </si>
+  <si>
+    <t>hkalkavan@hkalkavan.com</t>
+  </si>
+  <si>
+    <t>tonnages@gujarathiempire.in</t>
+  </si>
+  <si>
+    <t>drychart@rockmarine.gr</t>
+  </si>
+  <si>
+    <t>orders@hellaschart.gr</t>
+  </si>
+  <si>
+    <t>dry@manisabulk.com</t>
+  </si>
+  <si>
+    <t>chartering@prusias.net</t>
+  </si>
+  <si>
+    <t>chartering@dmvship.com</t>
+  </si>
+  <si>
+    <t>Chartering@alpina.dk</t>
+  </si>
+  <si>
+    <t>pmx@slmbulk.com</t>
+  </si>
+  <si>
+    <t>perioddesk@gujarathiempire.in</t>
+  </si>
+  <si>
+    <t>chartering@flamamaritime.com</t>
+  </si>
+  <si>
+    <t>chartering@elamira.org</t>
+  </si>
+  <si>
+    <t>cargoes@gujarathiempire.in</t>
+  </si>
+  <si>
+    <t>fixcargo@outlook.com</t>
+  </si>
+  <si>
+    <t>drycargo@aztamshipbrokers.com</t>
+  </si>
+  <si>
+    <t>mail@uf-shipping.com</t>
+  </si>
+  <si>
+    <t>linjian.li@aslbulkhk.com</t>
+  </si>
+  <si>
+    <t>chartering@saigonbulkcarriers.com</t>
+  </si>
+  <si>
+    <t>pmx@basimchart.com</t>
+  </si>
+  <si>
+    <t>nkcship@gmail.com</t>
+  </si>
+  <si>
+    <t>chartering@kcseatics.com</t>
+  </si>
+  <si>
+    <t>sinop@sinopshipping.com</t>
+  </si>
+  <si>
+    <t>dlshpg@126.com</t>
+  </si>
+  <si>
+    <t>broker@primeoceanic.in</t>
+  </si>
+  <si>
+    <t>chart@minadex.biz</t>
+  </si>
+  <si>
+    <t>polsteambrokers@polsteam.com.pl</t>
+  </si>
+  <si>
+    <t>chartering@agship.net</t>
+  </si>
+  <si>
+    <t>r1h5PdjkVYDn1B2M2Y8AsgTpseamus@pkt.gr</t>
+  </si>
+  <si>
+    <t>seamus@pkt.gr</t>
+  </si>
+  <si>
+    <t>chartering@skyhishipping.com</t>
+  </si>
+  <si>
+    <t>chartering@alcoschartering.com</t>
+  </si>
+  <si>
+    <t>aron@promptitude.cn</t>
+  </si>
+  <si>
+    <t>dry@amgchartering.com</t>
+  </si>
+  <si>
+    <t>handy@thanglongmarine.com</t>
+  </si>
+  <si>
+    <t>breakbulk@gujarathiempire.in</t>
+  </si>
+  <si>
+    <t>tuncer@uluship.com</t>
+  </si>
+  <si>
+    <t>chartering@spanopoulos-group.com</t>
+  </si>
+  <si>
+    <t>chartering@ipc-adci.com</t>
+  </si>
+  <si>
+    <t>liqiufeng@hongglory.com</t>
+  </si>
+  <si>
+    <t>shailesh@tristar-transport.com</t>
+  </si>
+  <si>
+    <t>hartering@exoduschartering.info</t>
+  </si>
+  <si>
+    <t>noreply@marinetraffic.com</t>
+  </si>
+  <si>
+    <t>n.diamantopoulos@varamar.com</t>
+  </si>
+  <si>
+    <t>chart@tavriaseachart.com</t>
+  </si>
+  <si>
+    <t>chartering@unibalts.lv</t>
+  </si>
+  <si>
+    <t>tangfengnan@fz-highton.com</t>
+  </si>
+  <si>
+    <t>chartering@cundachartering.com</t>
+  </si>
+  <si>
+    <t>all@aviori.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seamus@pkt.gr </t>
+  </si>
+  <si>
+    <t>chartering@alertaplus.si</t>
+  </si>
+  <si>
+    <t>aron@velocity.org.cn</t>
+  </si>
+  <si>
+    <t>wl@fz-highton.com</t>
+  </si>
+  <si>
+    <t>ty@fz-highton.com</t>
+  </si>
+  <si>
+    <t>2677736261@qq.com</t>
+  </si>
+  <si>
+    <t>chartering@teraship.com</t>
+  </si>
+  <si>
+    <t>hammam6@gmail.com</t>
+  </si>
+  <si>
+    <t>mpp-bulk@hansehamburg.de</t>
+  </si>
+  <si>
+    <t>gruznov@gruznov.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">З П*   KPLines &lt;chart@kplines.com</t>
+  </si>
+  <si>
+    <t>charter@fuyuanmarine.com.cn</t>
+  </si>
+  <si>
+    <t>chartering@graincom-shipping.com</t>
+  </si>
+  <si>
+    <t>bjoern.ihlenfeld@oldendorff.com</t>
+  </si>
+  <si>
+    <t>zahid.dxb@aahilshipping.com</t>
+  </si>
+  <si>
+    <t>&lt;hkalkavan@hkalkavan.com</t>
+  </si>
+  <si>
+    <t>сhartering@marinesko.org</t>
+  </si>
+  <si>
+    <t>grain@bsforum.ru</t>
+  </si>
+  <si>
+    <t>dungship@gmail.com</t>
+  </si>
+  <si>
+    <t>chartering@7smarine.com</t>
+  </si>
+  <si>
+    <t>cem@yavuzvarnali.com.tr</t>
+  </si>
+  <si>
+    <t>fatih@vectorchart.com</t>
+  </si>
+  <si>
+    <t>mukesh.jha@stevinshipping.com</t>
+  </si>
+  <si>
+    <t>ilya.tutygin@ingriashipping.com</t>
+  </si>
+  <si>
+    <t>ops@vectorchart.com</t>
+  </si>
+  <si>
+    <t>DAlekseev@fesco.com</t>
+  </si>
+  <si>
+    <t>bbk@makarashipping.com</t>
+  </si>
+  <si>
+    <t>imports@mailchimp.com</t>
+  </si>
+  <si>
+    <t>zahraaalshaawi@gmail.com</t>
+  </si>
+  <si>
+    <t>info@vivaconsult.ru</t>
+  </si>
+  <si>
+    <t>info@breakbulkevent.com</t>
+  </si>
+  <si>
+    <t>tbc1@mail.ru</t>
+  </si>
+  <si>
+    <t>info@vantageships.com</t>
+  </si>
+  <si>
+    <t>operations_saabtradingandshipping@outlook.com</t>
+  </si>
+  <si>
+    <t>vittorio@manisabulk.com</t>
+  </si>
+  <si>
+    <t>rkanzaki@mrh.biglobe.ne.jp</t>
+  </si>
+  <si>
+    <t>chartering@bpishipping.com</t>
+  </si>
+  <si>
+    <t>serena06@serenapeng.cn</t>
+  </si>
+  <si>
+    <t>chartering@bonchartshipping.com</t>
+  </si>
+  <si>
+    <t>chartering@mnfchart.gr</t>
+  </si>
+  <si>
+    <t>chartering@pgeshipping.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?     ь dУ?</t>
+  </si>
+  <si>
+    <t>llc.avangard-oil@mail.ru</t>
+  </si>
+  <si>
+    <t>silvia.p@internationalmaritimetraining.online</t>
+  </si>
+  <si>
+    <t>dania@didonshipping.com</t>
+  </si>
+  <si>
+    <t>admin@didonshipping.com</t>
+  </si>
+  <si>
+    <t>yb@fz-highton.com</t>
+  </si>
+  <si>
+    <t>coaster@alcostransport.com</t>
+  </si>
+  <si>
+    <t>aron@aronbryant001.top</t>
+  </si>
+  <si>
+    <t>czk@fz-highton.com</t>
+  </si>
+  <si>
+    <t>chartering@kopuzlar.co.uk</t>
+  </si>
+  <si>
+    <t>no-reply@gundemshipping.com</t>
+  </si>
+  <si>
+    <t>info@azshipping.co</t>
+  </si>
+  <si>
+    <t>chartering@annecyshipping.com</t>
+  </si>
+  <si>
+    <t>drybulk.islander@gmail.com</t>
+  </si>
+  <si>
+    <t>aron@gratified.cn</t>
+  </si>
+  <si>
+    <t>chart@dreamshipping.ru</t>
+  </si>
+  <si>
+    <t>dunya@dunyaship.com</t>
+  </si>
+  <si>
+    <t>info@thefreight.net</t>
+  </si>
+  <si>
+    <t>tanker@nazekship.com</t>
+  </si>
+  <si>
+    <t>burak@regencyship.com</t>
+  </si>
+  <si>
+    <t>chartering@silyonshipping.com.tr</t>
+  </si>
+  <si>
+    <t>flamamaritime@posta.jetmail.com.tr</t>
+  </si>
+  <si>
+    <t>chartering@seawind.com.hk</t>
+  </si>
+  <si>
+    <t>rohitsharmaseo92@gmail.com</t>
+  </si>
+  <si>
+    <t>alex.skraglenko@bk.ru</t>
+  </si>
+  <si>
+    <t>royalevershipping@gmail.com</t>
+  </si>
+  <si>
+    <t>info@polarisoffshore.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ё Оы*   Shiplinks, New Delhi &lt;dry@shiplinks.net</t>
+  </si>
+  <si>
+    <t>hello@fastmarkets.com</t>
+  </si>
+  <si>
+    <t>deepsea@alcostransport.com</t>
+  </si>
+  <si>
+    <t>Щyavuzvarnali@yavuzvarnali.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> j( Оъ*   KPLines &lt;chart@kplines.com</t>
+  </si>
+  <si>
+    <t>Minhdang@hdmaritime.com.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. Оъ*   PRIME &lt;broker@primeoceanic.in</t>
+  </si>
+  <si>
+    <t>dry@amgchartering.com fosdamietta</t>
+  </si>
+  <si>
+    <t>hart@nazekship.com</t>
+  </si>
+  <si>
+    <t>info@kuzeyship.com</t>
+  </si>
+  <si>
+    <t>chartering@vimasms.com</t>
+  </si>
+  <si>
+    <t>chartering@yildizdeniz.com.tr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chart@minadex.biz</t>
+  </si>
+  <si>
+    <t>arnoldmora222@gmail.com</t>
+  </si>
+  <si>
+    <t>fixchrt@bk.ru</t>
+  </si>
+  <si>
+    <t>fix@posbulk.com</t>
+  </si>
+  <si>
+    <t>chartering@ogalhk.com</t>
+  </si>
+  <si>
+    <t>aron@speedyx.cn</t>
+  </si>
+  <si>
+    <t>chartering@ibharms.com</t>
+  </si>
+  <si>
+    <t>kaminskaya@dorado-sa.ru</t>
+  </si>
+  <si>
+    <t>ry@shiplinks.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оу    Aenav - Chartering &lt;chartering@aenav.com</t>
+  </si>
+  <si>
+    <t>яяяя SFODf9pHOMK4 Chartering GTCTO &lt;chartering@gtcto.com</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -426,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A123"/>
+  <dimension ref="A1:A296"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1047,6 +1566,871 @@
         <v>122</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
